--- a/DMS/Master/Import/ImportExcel.xlsx
+++ b/DMS/Master/Import/ImportExcel.xlsx
@@ -24,30 +24,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Entityname</t>
   </si>
   <si>
-    <t>CountryId</t>
-  </si>
-  <si>
     <t>MobileNo</t>
   </si>
   <si>
     <t>EmailId</t>
   </si>
   <si>
-    <t>CreatedBy</t>
-  </si>
-  <si>
     <t>Rohit</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>Rohit@gmail.com</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>CountryName</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>raj@gmail.com</t>
+  </si>
+  <si>
+    <t>Nepal (Butwa City)</t>
+  </si>
+  <si>
+    <t>fdfdfd</t>
   </si>
 </sst>
 </file>
@@ -376,52 +385,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>8574859685</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>5487454545</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DMS/Master/Import/ImportExcel.xlsx
+++ b/DMS/Master/Import/ImportExcel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Entityname</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Nepal (Butwa City)</t>
-  </si>
-  <si>
-    <t>fdfdfd</t>
   </si>
 </sst>
 </file>
@@ -419,8 +416,8 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
+      <c r="C2">
+        <v>8787878</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
